--- a/autogen/爆款文案_2024.xlsx
+++ b/autogen/爆款文案_2024.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="爆款文案_2024" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="吸睛话术" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -29,7 +29,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+  <si>
+    <t>需要批量产生的条数:</t>
+  </si>
   <si>
     <t>序号</t>
   </si>
@@ -41,6 +44,603 @@
   </si>
   <si>
     <t>文案本意是指放书的桌子，后来指在桌子上写字的人。现在指的是公司或企业中从事文字工作的职位，就是以文字来表现已经制定的创意策略。文案是一个与广告创意先后相继呈现的表现过程、发展过程与深化过程， 多存在于广告公司，企业宣传与新闻策划工作等。</t>
+  </si>
+  <si>
+    <t>吸睛话术</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我简直惊呆了</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>哇，这个xxx太强了，必须要分享给你们。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你绝对想不到 xxx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>太扎心了</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为什么</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>竟然xxx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>他甚至xxx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>太不可思议了!"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"自从用了xxx,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"你们知道吗,xxx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这简直就是xxxx!"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"我最近一直在使用这个xxx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"前两天,xxxx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开来以后xxx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>太贴心了!"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>就在xxx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"你们一定不敢相信,xxx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"我昨天发现了一个厉害的AI工具,xxx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"大家一定要试试这个xxx,有了它,你就再也不需xxxx，简直是xxx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"你们相信吗?xxxx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你甚至还可以xxx (你甚至还可以直接把整本书的PDF扔给他)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>说实话xxxx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>给你们看一个厉害的东西，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这种体验真的是太神奇了。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>xxx 啥时候变得这么好用了</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>但我是真没想到....</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>他竟然可以xxx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这可是xxx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>没想到xxxx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>哇 (哇，Ai可以自动生成漫画了)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>遥遥领先了</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>话不多说了 我们一来看看这段刚才翻译吧</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>就在刚刚 xxx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我不知道这意味着什么</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不仅xxx ，还拥有xxx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Xxx 真的要走进现实了</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我们一起来看 xxx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最近ai技术的进化太快了，你看xxx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>颠覆性的</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重新定义了</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不得不服</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>值得所有人关注的</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>又一次证明了</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>终于等到了</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>刷新了我的认知</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你们看看 （你们看看，手机自带的录音软件有多强）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我真的震惊了</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>更令人惊讶的是</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我刚才尝试了下xxx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这个很有意思，必须分享下</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最离谱的是xxx (这个是表明一个事情，不可思议，可以这样去说。)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重磅啊，xxx(重磅啊，阿里云 刚刚启动了史上最大力度的降价 )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你注意到没有？xxx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>xxx又一次深夜放大招了</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -53,13 +653,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -206,7 +812,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,6 +821,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -406,12 +1030,38 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -532,145 +1182,160 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -986,40 +1651,73 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A2:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="14.1111111111111" customWidth="1"/>
-    <col min="2" max="2" width="81" customWidth="1"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="81.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="14.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" ht="114" customHeight="1" spans="1:2">
-      <c r="A2" s="2">
+      <c r="B9" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" ht="114" customHeight="1" spans="1:2">
+      <c r="A10" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B10" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" ht="43.2" spans="1:2">
+      <c r="A11" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" ht="43.2" spans="1:2">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
+      <c r="B11" s="8" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1032,14 +1730,293 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="64" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
